--- a/Excel2Json/bin/Sample.xlsx
+++ b/Excel2Json/bin/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA569E8-2FD8-44EF-83AB-DA3659FC7FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E09D3-1F67-47F3-A76C-EC63807BE3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="000010" sheetId="2" r:id="rId1"/>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1305,15 +1305,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3920B8-D5C3-4EAA-8F95-3863D32D9A2A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="3" max="3" width="49.08203125" customWidth="1"/>
     <col min="4" max="4" width="23.4140625" customWidth="1"/>
     <col min="5" max="5" width="11.58203125" customWidth="1"/>
   </cols>

--- a/Excel2Json/bin/Sample.xlsx
+++ b/Excel2Json/bin/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E09D3-1F67-47F3-A76C-EC63807BE3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18D9E4B-FE89-4F14-90D8-B9CC26E0D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="000010" sheetId="2" r:id="rId1"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1305,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3920B8-D5C3-4EAA-8F95-3863D32D9A2A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/Sample.xlsx
+++ b/Excel2Json/bin/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18D9E4B-FE89-4F14-90D8-B9CC26E0D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F51F21-2759-49AB-9CDC-CBC29A510C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="000010" sheetId="2" r:id="rId1"/>
@@ -98,7 +98,8 @@
 FadeIn = 9
 FadeOut=10
 Cinematic = 11
-EndingChoice=12</t>
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -310,7 +311,8 @@
 FadeIn = 9
 FadeOut=10
 Cinematic = 11
-EndingChoice=12</t>
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -494,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>이름</t>
   </si>
@@ -572,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nextFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,6 +646,50 @@
   </si>
   <si>
     <t>dialogue_ep3/301010_choice1, dialogue_ep3/301010_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이터이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라ㅏㄹ라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position(1,2,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roatation(1,2,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301010_choice3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어박스에있는 코드변경(000000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1052,7 +1094,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1098,10 +1140,29 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1"/>
@@ -1153,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1164,11 +1225,12 @@
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="27.9140625" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1219,30 +1281,30 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1261,36 +1323,61 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1393,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1320,13 +1407,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1374,30 +1461,30 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1405,10 +1492,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/Excel2Json/bin/Sample.xlsx
+++ b/Excel2Json/bin/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F51F21-2759-49AB-9CDC-CBC29A510C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F3963C-F99C-4BF8-B9FF-764112C1D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="722" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="000010" sheetId="2" r:id="rId1"/>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>이름</t>
   </si>
@@ -598,30 +598,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301010_choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301010_choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Choice 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choice 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>choice의 경우 +값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,18 +658,6 @@
   </si>
   <si>
     <t>roatation(1,2,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choice 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301010_choice3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클리어박스에있는 코드변경(000000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1062,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1141,27 +1109,27 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1214,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1230,7 +1198,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1281,7 +1249,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1312,72 +1280,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1392,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3920B8-D5C3-4EAA-8F95-3863D32D9A2A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1407,13 +1316,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1461,7 +1370,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1478,13 +1387,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1492,10 +1401,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>1</v>
